--- a/data/trans_bre/P5_4-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5_4-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,9%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,27%</t>
+          <t>-4,01%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 7,34</t>
+          <t>-14,66; 13,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 6,67</t>
+          <t>-14,3; 11,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,03; 25,71</t>
+          <t>-31,94; 47,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-33,44; 23,44</t>
+          <t>-31,98; 39,33</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,53</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-8,38%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>3,2%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 2,27</t>
+          <t>-8,65; 8,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 6,25</t>
+          <t>-6,06; 9,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,91; 5,84</t>
+          <t>-20,24; 24,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,27; 16,48</t>
+          <t>-14,0; 26,85</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-11,66</t>
+          <t>-11,77</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-11,79</t>
+          <t>-10,97</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-23,53%</t>
+          <t>-24,08%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-24,33%</t>
+          <t>-22,74%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,23; -4,94</t>
+          <t>-20,33; -2,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,46; -4,21</t>
+          <t>-19,68; -2,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-34,42; -10,6</t>
+          <t>-37,86; -5,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-36,56; -9,62</t>
+          <t>-36,38; -4,63</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,63</t>
+          <t>-6,73</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,53</t>
+          <t>-6,31</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-13,24%</t>
+          <t>-15,6%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-10,69%</t>
+          <t>-14,7%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,47; -2,0</t>
+          <t>-11,85; -1,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,26; -0,01</t>
+          <t>-13,73; -0,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,28; -5,05</t>
+          <t>-26,24; -4,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,92; -0,12</t>
+          <t>-28,63; -0,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-5,57</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-4,72</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-13,11%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-11,09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-9,5; -1,85</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-8,58; -0,6</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-21,12; -4,64</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-19,02; -1,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P5_4-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5_4-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,52</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,98%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-4,01%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.3470633912890153</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.273050148659145</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.009751278510324032</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.05967121453269238</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-14,66; 13,48</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-14,3; 11,98</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-31,94; 47,71</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-31,98; 39,33</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-14.66181004552073</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-15.38265316252797</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.3194243700150861</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.3504503496890113</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.47576709506604</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.61585425515212</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.4770892488833547</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.3379231275273381</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,31</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,8%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,2%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,65; 8,43</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,06; 9,51</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-20,24; 24,64</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-14,0; 26,85</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.3068543826623749</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.942563489223709</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.007989819563972942</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.04952747060075548</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-11,77</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-10,97</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-24,08%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-22,74%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-8.648345305942428</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.05311029639233</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2023552306058038</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.136903106301638</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-20,33; -2,15</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-19,68; -2,04</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-37,86; -5,12</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-36,38; -4,63</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.428709006373353</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>9.763649780787505</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.2464092079436232</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.2793462042914469</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +716,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-6,73</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-6,31</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-15,6%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-14,7%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-11.77038985876314</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-10.23609382331183</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.2408395179772598</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.2150333914787285</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-11,85; -1,77</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-13,73; -0,33</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-26,24; -4,62</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-28,63; -0,27</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-20.3322227197572</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-19.259539220868</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.3785511363722119</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.3706859915643484</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-2.146468212295488</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-0.9774247591624917</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>-0.05120614546177463</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>-0.02225408107080898</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-5,57</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-4,72</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-13,11%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-11,09%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-9,5; -1,85</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-8,58; -0,6</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-21,12; -4,64</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-19,02; -1,43</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-3.841837610980986</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-3.269707840766051</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.09256219152513702</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.07767898469650404</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-10.18427567594237</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-9.056479570205529</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2267821523755596</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.2010216998087292</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.741638757214855</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.943328975759167</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.04494030756214337</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.05141989911624056</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
